--- a/training/output/CNN/W/W2_W0.xlsx
+++ b/training/output/CNN/W/W2_W0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4831730769230769</v>
+        <v>0.1345833333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>2.882046872919256</v>
+        <v>3.080734372138977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7281468531468532</v>
+        <v>0.2875</v>
       </c>
       <c r="B3" t="n">
-        <v>2.153275988318704</v>
+        <v>2.901923000812531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7878059440559441</v>
+        <v>0.2822916666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9290921904824</v>
+        <v>2.855379939079285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.2616666666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>1.759259939193726</v>
+        <v>2.821912229061127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.816215034965035</v>
+        <v>0.2516666666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>1.64386201988567</v>
+        <v>2.734568476676941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.2491666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>1.613111317157745</v>
+        <v>2.720909118652344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.2591666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>1.579039779576388</v>
+        <v>2.692384362220764</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.2791666666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>1.561105067079718</v>
+        <v>2.669013023376465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.816215034965035</v>
+        <v>0.286875</v>
       </c>
       <c r="B10" t="n">
-        <v>1.578944065354087</v>
+        <v>2.650807559490204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.291875</v>
       </c>
       <c r="B11" t="n">
-        <v>1.523875025185672</v>
+        <v>2.641219019889832</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.3045833333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>1.534671366214752</v>
+        <v>2.602375507354736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.3227083333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>1.498874485492706</v>
+        <v>2.583332061767578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B14" t="n">
-        <v>1.495533926920457</v>
+        <v>2.608973443508148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.816215034965035</v>
+        <v>0.3175</v>
       </c>
       <c r="B15" t="n">
-        <v>1.474369320002469</v>
+        <v>2.57873123884201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.474434196949005</v>
+        <v>2.529408752918243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B17" t="n">
-        <v>1.463945697654377</v>
+        <v>2.504433214664459</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>1.472770685499365</v>
+        <v>2.490190386772156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.3204166666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.439199317585338</v>
+        <v>2.466103672981262</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.3383333333333333</v>
       </c>
       <c r="B20" t="n">
-        <v>1.450935580513694</v>
+        <v>2.462739050388336</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.3558333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.441993621262637</v>
+        <v>2.437902987003326</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.3458333333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>1.441958492452448</v>
+        <v>2.39888471364975</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.3360416666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>1.434050484137102</v>
+        <v>2.445726335048676</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.3554166666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>1.427512174302881</v>
+        <v>2.377879619598389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.4091666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>1.423346763307398</v>
+        <v>2.368248105049133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.42125</v>
       </c>
       <c r="B26" t="n">
-        <v>1.432687629352916</v>
+        <v>2.326710402965546</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>1.445568268949335</v>
+        <v>2.352238237857819</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.4033333333333333</v>
       </c>
       <c r="B28" t="n">
-        <v>1.422586251388896</v>
+        <v>2.323657751083374</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.3683333333333333</v>
       </c>
       <c r="B29" t="n">
-        <v>1.428995479236949</v>
+        <v>2.304334938526154</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.3935416666666667</v>
       </c>
       <c r="B30" t="n">
-        <v>1.421981784430417</v>
+        <v>2.296325504779816</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.4058333333333333</v>
       </c>
       <c r="B31" t="n">
-        <v>1.427354362877932</v>
+        <v>2.339116215705872</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.3808333333333333</v>
       </c>
       <c r="B32" t="n">
-        <v>1.437344339760867</v>
+        <v>2.299921214580536</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.390625</v>
       </c>
       <c r="B33" t="n">
-        <v>1.43005216663534</v>
+        <v>2.286360919475555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.393125</v>
       </c>
       <c r="B34" t="n">
-        <v>1.423175795511766</v>
+        <v>2.260894954204559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.42625</v>
       </c>
       <c r="B35" t="n">
-        <v>1.412526759234342</v>
+        <v>2.236087262630463</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.4391666666666667</v>
       </c>
       <c r="B36" t="n">
-        <v>1.424099369482561</v>
+        <v>2.201746940612793</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.3954166666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>1.424824004823511</v>
+        <v>2.185708701610565</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.3683333333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>1.436299161477522</v>
+        <v>2.208798110485077</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.38625</v>
       </c>
       <c r="B39" t="n">
-        <v>1.423817867582495</v>
+        <v>2.275671601295471</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.3783333333333333</v>
       </c>
       <c r="B40" t="n">
-        <v>1.41398732770573</v>
+        <v>2.330423355102539</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.4108333333333333</v>
       </c>
       <c r="B41" t="n">
-        <v>1.408820347352461</v>
+        <v>2.225102424621582</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.3858333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>1.413788454099135</v>
+        <v>2.138238608837128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.4033333333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>1.412296847863631</v>
+        <v>2.147983253002167</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>1.415335525165905</v>
+        <v>2.09355640411377</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.4283333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>1.415839514949105</v>
+        <v>2.070274353027344</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.4264583333333333</v>
       </c>
       <c r="B46" t="n">
-        <v>1.407311320304871</v>
+        <v>2.145612120628357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.42875</v>
       </c>
       <c r="B47" t="n">
-        <v>1.413126257332888</v>
+        <v>2.104310214519501</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.39125</v>
       </c>
       <c r="B48" t="n">
-        <v>1.404998248273676</v>
+        <v>2.072625756263733</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.4314583333333333</v>
       </c>
       <c r="B49" t="n">
-        <v>1.40631118145856</v>
+        <v>2.05752232670784</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.4747916666666667</v>
       </c>
       <c r="B50" t="n">
-        <v>1.406227908351205</v>
+        <v>2.02553603053093</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.5077083333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>1.405867582017725</v>
+        <v>2.036953955888748</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.4775</v>
       </c>
       <c r="B52" t="n">
-        <v>1.408702173016288</v>
+        <v>2.050132155418396</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.816215034965035</v>
+        <v>0.4445833333333333</v>
       </c>
       <c r="B53" t="n">
-        <v>1.404792563481764</v>
+        <v>2.079987585544586</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.5304166666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.405608486045491</v>
+        <v>1.996177971363068</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.4879166666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>1.402642586014488</v>
+        <v>1.970619857311249</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.5058333333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>1.403865266929973</v>
+        <v>1.99095544219017</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.503125</v>
       </c>
       <c r="B57" t="n">
-        <v>1.403447091579437</v>
+        <v>1.927028626203537</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.5110416666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>1.404827930710532</v>
+        <v>1.946666836738586</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="B59" t="n">
-        <v>1.402200650085103</v>
+        <v>1.976803511381149</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.5383333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>1.4030592658303</v>
+        <v>1.952378928661346</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.5054166666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>1.4011793570085</v>
+        <v>1.99499785900116</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="B62" t="n">
-        <v>1.407500776377591</v>
+        <v>1.940536171197891</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.545625</v>
       </c>
       <c r="B63" t="n">
-        <v>1.401212079958482</v>
+        <v>1.940628618001938</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.550625</v>
       </c>
       <c r="B64" t="n">
-        <v>1.404574345458638</v>
+        <v>1.934321999549866</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>1.404348519715396</v>
+        <v>1.94638866186142</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.5435416666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>1.400848659602079</v>
+        <v>1.870914131402969</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.5435416666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>1.400552429936149</v>
+        <v>1.930726289749146</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.5658333333333334</v>
       </c>
       <c r="B68" t="n">
-        <v>1.403007875789296</v>
+        <v>1.873291671276093</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.5685416666666666</v>
       </c>
       <c r="B69" t="n">
-        <v>1.398193597793579</v>
+        <v>1.879002571105957</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.579375</v>
       </c>
       <c r="B70" t="n">
-        <v>1.398613398725336</v>
+        <v>1.834002733230591</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.5558333333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>1.413195712999864</v>
+        <v>1.82617461681366</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.5285416666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>1.399355102669109</v>
+        <v>1.839308828115463</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="B73" t="n">
-        <v>1.397895444523204</v>
+        <v>1.862805753946304</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.550625</v>
       </c>
       <c r="B74" t="n">
-        <v>1.401050675999034</v>
+        <v>1.803439617156982</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.5710416666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>1.400271518663927</v>
+        <v>1.851266205310822</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.5639583333333333</v>
       </c>
       <c r="B76" t="n">
-        <v>1.400379749861631</v>
+        <v>1.861644953489304</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.56625</v>
       </c>
       <c r="B77" t="n">
-        <v>1.4025460915132</v>
+        <v>1.789967745542526</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.55125</v>
       </c>
       <c r="B78" t="n">
-        <v>1.401090686971491</v>
+        <v>1.79844856262207</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.565625</v>
       </c>
       <c r="B79" t="n">
-        <v>1.402932020750913</v>
+        <v>1.779189079999924</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="B80" t="n">
-        <v>1.401773777875033</v>
+        <v>1.749460458755493</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.581875</v>
       </c>
       <c r="B81" t="n">
-        <v>1.398623439398679</v>
+        <v>1.742079883813858</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>1.40063785422932</v>
+        <v>1.725259512662888</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.5816666666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>1.39821854504672</v>
+        <v>1.703753501176834</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.5841666666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>1.399442613124847</v>
+        <v>1.650362491607666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.591875</v>
       </c>
       <c r="B85" t="n">
-        <v>1.39870577508753</v>
+        <v>1.703462660312653</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.5839583333333334</v>
       </c>
       <c r="B86" t="n">
-        <v>1.399312832138755</v>
+        <v>1.639535069465637</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.5714583333333334</v>
       </c>
       <c r="B87" t="n">
-        <v>1.400584946979176</v>
+        <v>1.666776806116104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.584375</v>
       </c>
       <c r="B88" t="n">
-        <v>1.406206786632538</v>
+        <v>1.647758364677429</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.5814583333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>1.407497552308169</v>
+        <v>1.643995940685272</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.586875</v>
       </c>
       <c r="B90" t="n">
-        <v>1.398412883281708</v>
+        <v>1.712365835905075</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.6008333333333334</v>
       </c>
       <c r="B91" t="n">
-        <v>1.410252592780373</v>
+        <v>1.740521162748337</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.589375</v>
       </c>
       <c r="B92" t="n">
-        <v>1.42116872288964</v>
+        <v>1.654987394809723</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.6070833333333333</v>
       </c>
       <c r="B93" t="n">
-        <v>1.423783752051267</v>
+        <v>1.622614711523056</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.581875</v>
       </c>
       <c r="B94" t="n">
-        <v>1.399806374853308</v>
+        <v>1.635528028011322</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.596875</v>
       </c>
       <c r="B95" t="n">
-        <v>1.398017975417051</v>
+        <v>1.587735414505005</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.6145833333333334</v>
       </c>
       <c r="B96" t="n">
-        <v>1.398326629942114</v>
+        <v>1.594173163175583</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.601875</v>
       </c>
       <c r="B97" t="n">
-        <v>1.400057754733346</v>
+        <v>1.587160170078278</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.6220833333333333</v>
       </c>
       <c r="B98" t="n">
-        <v>1.398252026601271</v>
+        <v>1.567555993795395</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.599375</v>
       </c>
       <c r="B99" t="n">
-        <v>1.403138561682268</v>
+        <v>1.576654732227325</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.6264583333333333</v>
       </c>
       <c r="B100" t="n">
-        <v>1.39851392399181</v>
+        <v>1.607072830200195</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.6445833333333333</v>
       </c>
       <c r="B101" t="n">
-        <v>1.410347548398105</v>
+        <v>1.556127458810806</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.6295833333333333</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.547785371541977</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.6395833333333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.540849894285202</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.6770833333333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.560661643743515</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.639375</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.575749218463898</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.6816666666666666</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.546701669692993</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.6895833333333333</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.530698835849762</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.6495833333333334</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.563297420740128</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.6520833333333333</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.505901336669922</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.6241666666666666</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.498136192560196</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.6497916666666667</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.465211987495422</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.7020833333333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.485074549913406</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.661875</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.48355758190155</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.6947916666666666</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.425860613584518</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.6927083333333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.510522544384003</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.6691666666666666</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.580958008766174</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.6497916666666667</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.57490012049675</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.6770833333333334</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.456564843654633</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.704375</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.466000407934189</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.7045833333333335</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.449272602796555</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.7070833333333334</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.414700269699097</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.6972916666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.402004361152649</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.7377083333333333</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.404331833124161</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.7695833333333334</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.363409519195557</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.7120833333333333</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.43771031498909</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.7272916666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.539211422204971</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.7252083333333333</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.439008086919785</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.7247916666666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.407100141048431</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.8043750000000001</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.445133090019226</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.7522916666666667</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.437947869300842</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.7547916666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.379386454820633</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.7579166666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.440945416688919</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.7597916666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.351065635681152</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.7722916666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.30351448059082</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.783125</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.287867069244385</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.7991666666666667</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.31171527504921</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.8083333333333333</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.330824345350266</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.6054166666666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.861153870820999</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.6722916666666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.870029658079147</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.7597916666666666</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.51875627040863</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.7883333333333333</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.332966774702072</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.7860416666666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.333120167255402</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.790625</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.266778200864792</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.8314583333333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.305390059947968</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.8216666666666667</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.285656720399857</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.821875</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.285460859537125</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.8772916666666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.195129573345184</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.8616666666666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.184930622577667</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.8002083333333333</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.211167752742767</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.8872916666666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.137831032276154</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9045833333333334</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.110776722431183</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.8358333333333333</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.185804843902588</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.8641666666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.17908376455307</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.8747916666666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.106614232063293</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9072916666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.071100741624832</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.8947916666666667</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.101318031549454</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.843125</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.209613919258118</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9072916666666666</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.191685825586319</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.070919007062912</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9075</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.077349483966827</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.8697916666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.214902549982071</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9147916666666667</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.050917059183121</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9272916666666666</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.057233780622482</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9147916666666667</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.023553505539894</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9297916666666667</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9902538955211639</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9297916666666667</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.027175411581993</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.914375</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.026336669921875</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.901875</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.041139379143715</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9222916666666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9971969723701477</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9297916666666667</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9962590336799622</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9045833333333334</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.099180072546005</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9122916666666666</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.006404057145119</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9297916666666667</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9820031076669693</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9797697216272354</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9147916666666667</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9611377120018005</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9322916666666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.913529247045517</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.95376256108284</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9172916666666666</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9415410310029984</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9097765982151031</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9272916666666666</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9022733718156815</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9327928274869919</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9322916666666666</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.8753210306167603</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9027470797300339</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9215235859155655</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9322916666666666</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.8907824903726578</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.866852879524231</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.8503719717264175</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9322916666666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.8559926450252533</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.8412168771028519</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9222916666666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.8879661709070206</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.8511572033166885</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.8215597420930862</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.8252703994512558</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9272916666666666</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.8343647420406342</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9197916666666667</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.8246696889400482</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9297916666666667</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.8130450695753098</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9247916666666667</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.8151427209377289</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.8256819248199463</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9347916666666667</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.8167447298765182</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9222916666666666</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.8099299222230911</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7963084429502487</v>
       </c>
     </row>
   </sheetData>
